--- a/output/init_mle/1_mean.xlsx
+++ b/output/init_mle/1_mean.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001617473731958741</v>
+        <v>0.01654807476682342</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.009811304454303612</v>
+        <v>0.01178848511673608</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,39 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003730178032318719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.001153016440031909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-0.002610562228696119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.004546763627066852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-0.001149937044140982</v>
+        <v>-0.006539893136573985</v>
       </c>
     </row>
   </sheetData>
